--- a/result/forest area in region.xlsx
+++ b/result/forest area in region.xlsx
@@ -24,29 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TypeName.1</t>
   </si>
   <si>
-    <t>Center1</t>
-  </si>
-  <si>
-    <t>Center2</t>
-  </si>
-  <si>
-    <t>East1</t>
-  </si>
-  <si>
-    <t>East2</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
     <t>竹林</t>
   </si>
   <si>
@@ -60,6 +42,63 @@
   </si>
   <si>
     <t>TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲嘉南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中彰投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>各分區內的森林面積(km</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +122,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,12 +140,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -106,11 +169,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,210 +459,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F21:M26"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
+    <row r="2" spans="2:9" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="C4" s="2">
+        <f>472966809*(0.001*0.001)</f>
+        <v>472.96680899999996</v>
+      </c>
+      <c r="D4" s="2">
         <f>211061678*(0.001*0.001)</f>
         <v>211.061678</v>
       </c>
-      <c r="H22" s="1">
+      <c r="E4" s="2">
         <f>372893553*(0.001*0.001)</f>
         <v>372.893553</v>
       </c>
-      <c r="I22" s="1">
+      <c r="F4" s="2">
+        <f>194009800*(0.001*0.001)</f>
+        <v>194.00979999999998</v>
+      </c>
+      <c r="G4" s="2">
         <f>58399534*(0.001*0.001)</f>
         <v>58.399533999999996</v>
       </c>
-      <c r="J22" s="1">
+      <c r="H4" s="2">
         <f>29103964*(0.001*0.001)</f>
         <v>29.103963999999998</v>
       </c>
-      <c r="K22" s="1">
-        <f>472966809*(0.001*0.001)</f>
-        <v>472.96680899999996</v>
-      </c>
-      <c r="L22" s="1">
-        <f>194009800*(0.001*0.001)</f>
-        <v>194.00979999999998</v>
-      </c>
-      <c r="M22" s="1">
-        <f>SUM(G22:L22)</f>
-        <v>1338.435338</v>
+      <c r="I4" s="2">
+        <f>SUM(D4:H4)</f>
+        <v>865.46852899999999</v>
       </c>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>650812478*(0.001*0.001)</f>
+        <v>650.81247799999994</v>
+      </c>
+      <c r="D5" s="2">
         <f>1084795759*(0.001*0.001)</f>
         <v>1084.7957589999999</v>
       </c>
-      <c r="H23" s="1">
+      <c r="E5" s="2">
         <f>56303801*(0.001*0.001)</f>
         <v>56.303801</v>
       </c>
-      <c r="I23" s="1">
+      <c r="F5" s="2">
+        <f>268086423*(0.001*0.001)</f>
+        <v>268.08642299999997</v>
+      </c>
+      <c r="G5" s="2">
         <f>693864341*(0.001*0.001)</f>
         <v>693.86434099999997</v>
       </c>
-      <c r="J23" s="1">
+      <c r="H5" s="2">
         <f>252278674*(0.001*0.001)</f>
         <v>252.278674</v>
       </c>
-      <c r="K23" s="1">
-        <f>650812478*(0.001*0.001)</f>
-        <v>650.81247799999994</v>
-      </c>
-      <c r="L23" s="1">
-        <f>268086423*(0.001*0.001)</f>
-        <v>268.08642299999997</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" ref="M23:M26" si="0">SUM(G23:L23)</f>
-        <v>3006.1414759999998</v>
+      <c r="I5" s="2">
+        <f>SUM(D5:H5)</f>
+        <v>2355.328998</v>
       </c>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f>669784037*(0.001*0.001)</f>
+        <v>669.78403700000001</v>
+      </c>
+      <c r="D6" s="2">
         <f>647812768*(0.001*0.001)</f>
         <v>647.81276800000001</v>
       </c>
-      <c r="H24" s="1">
+      <c r="E6" s="2">
         <f>342780176*(0.001*0.001)</f>
         <v>342.78017599999998</v>
       </c>
-      <c r="I24" s="1">
+      <c r="F6" s="2">
+        <f>221365988*(0.001*0.001)</f>
+        <v>221.36598799999999</v>
+      </c>
+      <c r="G6" s="2">
         <f>540652644*(0.001*0.001)</f>
         <v>540.65264400000001</v>
       </c>
-      <c r="J24" s="1">
+      <c r="H6" s="2">
         <f>209867484*(0.001*0.001)</f>
         <v>209.86748399999999</v>
       </c>
-      <c r="K24" s="1">
-        <f>669784037*(0.001*0.001)</f>
-        <v>669.78403700000001</v>
-      </c>
-      <c r="L24" s="1">
-        <f>221365988*(0.001*0.001)</f>
-        <v>221.36598799999999</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="0"/>
-        <v>2632.263097</v>
+      <c r="I6" s="2">
+        <f>SUM(D6:H6)</f>
+        <v>1962.4790600000001</v>
       </c>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <f>4374002388*(0.001*0.001)</f>
+        <v>4374.0023879999999</v>
+      </c>
+      <c r="D7" s="2">
         <f>2234316759*(0.001*0.001)</f>
         <v>2234.3167589999998</v>
       </c>
-      <c r="H25" s="1">
+      <c r="E7" s="2">
         <f>652372405*(0.001*0.001)</f>
         <v>652.37240499999996</v>
       </c>
-      <c r="I25" s="1">
+      <c r="F7" s="2">
+        <f>2553087424*(0.001*0.001)</f>
+        <v>2553.0874239999998</v>
+      </c>
+      <c r="G7" s="2">
         <f>2382037136*(0.001*0.001)</f>
         <v>2382.0371359999999</v>
       </c>
-      <c r="J25" s="1">
+      <c r="H7" s="2">
         <f>2363528880*(0.001*0.001)</f>
         <v>2363.5288799999998</v>
       </c>
-      <c r="K25" s="1">
-        <f>4374002388*(0.001*0.001)</f>
-        <v>4374.0023879999999</v>
-      </c>
-      <c r="L25" s="1">
-        <f>2553087424*(0.001*0.001)</f>
-        <v>2553.0874239999998</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="I7" s="2">
+        <f>SUM(D7:H7)</f>
+        <v>10185.342603999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C4:C7)</f>
+        <v>6167.5657119999996</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(D4:D7)</f>
+        <v>4177.9869639999997</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:H8" si="0">SUM(E4:E7)</f>
+        <v>1424.349935</v>
+      </c>
+      <c r="F8" s="2">
+        <f>SUM(F4:F7)</f>
+        <v>3236.5496349999999</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>14559.344992</v>
-      </c>
-    </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="G26" s="1">
-        <f>SUM(G22:G25)</f>
-        <v>4177.9869639999997</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ref="H26:L26" si="1">SUM(H22:H25)</f>
-        <v>1424.349935</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="1"/>
         <v>3674.9536549999998</v>
       </c>
-      <c r="J26" s="1">
-        <f t="shared" si="1"/>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
         <v>2854.7790019999998</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>6167.5657119999996</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="1"/>
-        <v>3236.5496349999999</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="0"/>
-        <v>21536.184902999998</v>
+      <c r="I8" s="2">
+        <f>SUM(D8:H8)</f>
+        <v>15368.619190999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>